--- a/数据结构.xlsx
+++ b/数据结构.xlsx
@@ -483,6 +483,194 @@
         <a:xfrm>
           <a:off x="0" y="4572000"/>
           <a:ext cx="7543800" cy="5476875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10287000"/>
+          <a:ext cx="8743950" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14097000"/>
+          <a:ext cx="8505825" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18288000"/>
+          <a:ext cx="8848725" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22669500"/>
+          <a:ext cx="8534400" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -806,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="R120" sqref="R120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/数据结构.xlsx
+++ b/数据结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="线性表" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t> 二叉树（Binary Tree)</t>
+  </si>
+  <si>
+    <t>每个结点至多拥有两棵子树(即二叉树中不存在度大于2的结点)，并且，二叉树的子树有左右之分，其次序不能任意颠倒。</t>
+  </si>
+  <si>
+    <t>二叉树的性质</t>
+  </si>
+  <si>
+    <t>（1）若二叉树的层次从0开始，则在二叉树的第i层至多有2^i个结点(i&gt;=0)。(每一层的最大结点数，不是所有结点的总和)</t>
+  </si>
+  <si>
+    <t>（2）高度为k的二叉树最多有2^(k+1) - 1个结点(k&gt;=-1)。 (空树的高度为-1)  (这是整颗树的结点的总和，也是完美二叉树)</t>
+  </si>
+  <si>
+    <t>完全二叉树(Complete Binary Tree)</t>
+  </si>
+  <si>
+    <t>完美二叉树(Perfect Binary Tree)</t>
+  </si>
+  <si>
+    <t>完全二叉树的定义、性质以及算法见正文。这里补充一点：完全二叉树是效率很高的数据结构，堆是一种完全二叉树或者近似完全二叉树，所以效率极高，像十分常用的排序算法、Dijkstra算法、Prim算法等都要用堆才能优化，几乎每次都要考到的二叉排序树的效率也要借助平衡性来提高，而平衡性基于完全二叉树。</t>
+  </si>
+  <si>
+    <t>完全二叉树定义</t>
+  </si>
+  <si>
+    <t>1.若设二叉树的深度为h，除第 h 层外，其它各层 (1～h-1) 的结点数都达到最大个数，第 h 层所有的结点都连续集中在最左边，这就是完全二叉树。</t>
+  </si>
+  <si>
+    <t>2.完全二叉树是由满二叉树而引出来的。对于深度为K的，有n个结点的二叉树，当且仅当其每一个结点都与深度为K的满二叉树中编号从1至n的结点一一对应时称之为完全二叉树。</t>
+  </si>
+  <si>
+    <r>
+      <t>一个深度为k(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;=-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)且有2^(k+1) - 1个结点的二叉树称为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>完美二叉树或满二叉树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>是6F的左儿子，写错了</t>
+  </si>
+  <si>
+    <t>3.堆的最常用结构是用二叉树表示，不特指的话它是一颗完全二叉树</t>
+  </si>
+  <si>
+    <t>4.因为高度为h的完全二叉树有结点2^(h-1)到2^h-1个，且结点排布极其规律所有不用指针用数组来实现</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +127,46 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -56,8 +195,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,6 +825,246 @@
         <a:xfrm>
           <a:off x="0" y="22669500"/>
           <a:ext cx="8534400" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8820150" y="666750"/>
+          <a:ext cx="3057525" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4219575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="4219575" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4286250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="3638550"/>
+          <a:ext cx="7019925" cy="4105275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6715125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8001000"/>
+          <a:ext cx="6715125" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5162550</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12192000"/>
+          <a:ext cx="5162550" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -977,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="R193" sqref="R193"/>
     </sheetView>
   </sheetViews>
@@ -994,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="R120" sqref="R120"/>
     </sheetView>
   </sheetViews>
@@ -1009,14 +1403,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="130.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="45">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>